--- a/Gjeldene_analyser/Resultatskjema.xlsx
+++ b/Gjeldene_analyser/Resultatskjema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Gjeldene_analyser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73EB063-4049-534F-9BBB-8121A618F536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F950FBAE-5C26-A84B-AE83-D0B4BD38E3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="222">
   <si>
     <t>id</t>
   </si>
@@ -696,6 +696,9 @@
   </si>
   <si>
     <t>tr031 005</t>
+  </si>
+  <si>
+    <t>phys_act</t>
   </si>
 </sst>
 </file>
@@ -1118,11 +1121,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FX77"/>
+  <dimension ref="A1:FY77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ45" sqref="BQ45"/>
+    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CC51" sqref="CC51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1176,71 +1179,72 @@
     <col min="78" max="78" width="9.5" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="20" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="19" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="11.5" customWidth="1"/>
-    <col min="117" max="117" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="25" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="16" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="12" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="10" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="13" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="9.83203125" customWidth="1"/>
-    <col min="161" max="161" width="14" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="10" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.5" customWidth="1"/>
+    <col min="82" max="82" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="20" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="19" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="11.5" customWidth="1"/>
+    <col min="118" max="118" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="17" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="25" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="16" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="12" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="10" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="13" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="9.83203125" customWidth="1"/>
+    <col min="162" max="162" width="14" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:176" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1482,292 +1486,295 @@
         <v>79</v>
       </c>
       <c r="CC1" t="s">
+        <v>221</v>
+      </c>
+      <c r="CD1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DN1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DW1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EC1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EF1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EG1" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EH1" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EI1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EJ1" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EK1" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EL1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EM1" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EN1" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EO1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EP1" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EQ1" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ER1" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ES1" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ET1" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EY1" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EZ1" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FA1" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FB1" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FC1" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FD1" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FE1" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FF1" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FG1" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FH1" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FI1" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FJ1" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FK1" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FL1" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FN1" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FO1" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FP1" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FQ1" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FR1" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FT1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>175</v>
       </c>
@@ -2022,8 +2029,11 @@
       <c r="CB2">
         <v>926</v>
       </c>
+      <c r="CC2">
+        <v>5428.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>180</v>
       </c>
@@ -2278,8 +2288,11 @@
       <c r="CB3">
         <v>1137</v>
       </c>
+      <c r="CC3">
+        <v>2880</v>
+      </c>
     </row>
-    <row r="4" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -2533,8 +2546,11 @@
       <c r="CB4">
         <v>860</v>
       </c>
+      <c r="CC4">
+        <v>720</v>
+      </c>
     </row>
-    <row r="5" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -2789,8 +2805,11 @@
       <c r="CB5">
         <v>1237</v>
       </c>
+      <c r="CC5">
+        <v>600</v>
+      </c>
     </row>
-    <row r="6" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -3045,8 +3064,11 @@
       <c r="CB6" s="7" t="s">
         <v>179</v>
       </c>
+      <c r="CC6">
+        <v>1860</v>
+      </c>
     </row>
-    <row r="7" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -3301,8 +3323,11 @@
       <c r="CB7">
         <v>1006</v>
       </c>
+      <c r="CC7">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="8" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -3557,8 +3582,11 @@
       <c r="CB8">
         <v>2068</v>
       </c>
+      <c r="CC8">
+        <v>360</v>
+      </c>
     </row>
-    <row r="9" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -3813,8 +3841,11 @@
       <c r="CB9">
         <v>657</v>
       </c>
+      <c r="CC9">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="10" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -4069,8 +4100,11 @@
       <c r="CB10">
         <v>1057</v>
       </c>
+      <c r="CC10">
+        <v>3442.8</v>
+      </c>
     </row>
-    <row r="11" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>190</v>
       </c>
@@ -4325,8 +4359,11 @@
       <c r="CB11">
         <v>864</v>
       </c>
+      <c r="CC11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="12" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>191</v>
       </c>
@@ -4581,8 +4618,11 @@
       <c r="CB12">
         <v>1054</v>
       </c>
+      <c r="CC12">
+        <v>1728</v>
+      </c>
     </row>
-    <row r="13" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>192</v>
       </c>
@@ -4837,8 +4877,11 @@
       <c r="CB13">
         <v>1117</v>
       </c>
+      <c r="CC13" s="7" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="14" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>193</v>
       </c>
@@ -5092,8 +5135,11 @@
       <c r="CB14">
         <v>1653</v>
       </c>
+      <c r="CC14">
+        <v>2880</v>
+      </c>
     </row>
-    <row r="15" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -5348,8 +5394,11 @@
       <c r="CB15">
         <v>974</v>
       </c>
+      <c r="CC15">
+        <v>3312</v>
+      </c>
     </row>
-    <row r="16" spans="1:175" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:176" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>195</v>
       </c>
@@ -5604,8 +5653,11 @@
       <c r="CB16">
         <v>1306</v>
       </c>
+      <c r="CC16">
+        <v>1224</v>
+      </c>
     </row>
-    <row r="17" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -5860,8 +5912,11 @@
       <c r="CB17">
         <v>1021</v>
       </c>
+      <c r="CC17">
+        <v>2448</v>
+      </c>
     </row>
-    <row r="18" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>197</v>
       </c>
@@ -6114,8 +6169,11 @@
       <c r="CB18">
         <v>902</v>
       </c>
+      <c r="CC18">
+        <v>2358</v>
+      </c>
     </row>
-    <row r="19" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>198</v>
       </c>
@@ -6370,8 +6428,11 @@
       <c r="CB19">
         <v>1426</v>
       </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -6626,8 +6687,11 @@
       <c r="CB20">
         <v>1707</v>
       </c>
+      <c r="CC20">
+        <v>6768</v>
+      </c>
     </row>
-    <row r="21" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -6882,8 +6946,11 @@
       <c r="CB21">
         <v>738</v>
       </c>
+      <c r="CC21">
+        <v>2484</v>
+      </c>
     </row>
-    <row r="22" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>201</v>
       </c>
@@ -7138,8 +7205,11 @@
       <c r="CB22">
         <v>1186</v>
       </c>
+      <c r="CC22">
+        <v>3240</v>
+      </c>
     </row>
-    <row r="23" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -7394,8 +7464,11 @@
       <c r="CB23">
         <v>2049</v>
       </c>
+      <c r="CC23">
+        <v>720</v>
+      </c>
     </row>
-    <row r="24" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -7650,8 +7723,11 @@
       <c r="CB24">
         <v>949</v>
       </c>
+      <c r="CC24">
+        <v>702</v>
+      </c>
     </row>
-    <row r="25" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>204</v>
       </c>
@@ -7906,8 +7982,11 @@
       <c r="CB25">
         <v>1423</v>
       </c>
+      <c r="CC25">
+        <v>720</v>
+      </c>
     </row>
-    <row r="26" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>205</v>
       </c>
@@ -8160,8 +8239,11 @@
       <c r="CB26">
         <v>1312</v>
       </c>
+      <c r="CC26">
+        <v>1080</v>
+      </c>
     </row>
-    <row r="27" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -8416,8 +8498,11 @@
       <c r="CB27">
         <v>910</v>
       </c>
+      <c r="CC27">
+        <v>3100.8</v>
+      </c>
     </row>
-    <row r="28" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>207</v>
       </c>
@@ -8672,8 +8757,11 @@
       <c r="CB28">
         <v>1276</v>
       </c>
+      <c r="CC28">
+        <v>900</v>
+      </c>
     </row>
-    <row r="29" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>208</v>
       </c>
@@ -8926,8 +9014,11 @@
       <c r="CB29">
         <v>1275</v>
       </c>
+      <c r="CC29">
+        <v>2430</v>
+      </c>
     </row>
-    <row r="30" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>209</v>
       </c>
@@ -9182,8 +9273,11 @@
       <c r="CB30">
         <v>2566</v>
       </c>
+      <c r="CC30">
+        <v>1260</v>
+      </c>
     </row>
-    <row r="31" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>210</v>
       </c>
@@ -9438,8 +9532,11 @@
       <c r="CB31" s="7" t="s">
         <v>179</v>
       </c>
+      <c r="CC31">
+        <v>1872</v>
+      </c>
     </row>
-    <row r="32" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>211</v>
       </c>
@@ -9694,8 +9791,11 @@
       <c r="CB32">
         <v>1077</v>
       </c>
+      <c r="CC32">
+        <v>540</v>
+      </c>
     </row>
-    <row r="33" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>212</v>
       </c>
@@ -9950,8 +10050,11 @@
       <c r="CB33">
         <v>1376</v>
       </c>
+      <c r="CC33">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="34" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>213</v>
       </c>
@@ -10206,8 +10309,11 @@
       <c r="CB34">
         <v>1937</v>
       </c>
+      <c r="CC34">
+        <v>13320</v>
+      </c>
     </row>
-    <row r="35" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -10462,8 +10568,11 @@
       <c r="CB35">
         <v>2530</v>
       </c>
+      <c r="CC35">
+        <v>2160</v>
+      </c>
     </row>
-    <row r="36" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>215</v>
       </c>
@@ -10718,8 +10827,11 @@
       <c r="CB36">
         <v>940</v>
       </c>
+      <c r="CC36">
+        <v>2880</v>
+      </c>
     </row>
-    <row r="37" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>216</v>
       </c>
@@ -10974,8 +11086,11 @@
       <c r="CB37">
         <v>1098</v>
       </c>
+      <c r="CC37">
+        <v>5911.2</v>
+      </c>
     </row>
-    <row r="38" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>217</v>
       </c>
@@ -11230,8 +11345,11 @@
       <c r="CB38">
         <v>1043</v>
       </c>
+      <c r="CC38">
+        <v>2400.4</v>
+      </c>
     </row>
-    <row r="39" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>218</v>
       </c>
@@ -11484,8 +11602,11 @@
       <c r="CB39" s="7" t="s">
         <v>179</v>
       </c>
+      <c r="CC39" s="7" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="40" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>175</v>
       </c>
@@ -11740,8 +11861,11 @@
       <c r="CB40">
         <v>966</v>
       </c>
+      <c r="CC40">
+        <v>4696.8</v>
+      </c>
     </row>
-    <row r="41" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>186</v>
       </c>
@@ -11996,8 +12120,11 @@
       <c r="CB41">
         <v>1224</v>
       </c>
+      <c r="CC41">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="42" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>180</v>
       </c>
@@ -12252,8 +12379,11 @@
       <c r="CB42">
         <v>1053</v>
       </c>
+      <c r="CC42">
+        <v>1620</v>
+      </c>
     </row>
-    <row r="43" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>220</v>
       </c>
@@ -12507,8 +12637,11 @@
       <c r="CB43">
         <v>996</v>
       </c>
+      <c r="CC43">
+        <v>1872</v>
+      </c>
     </row>
-    <row r="44" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>190</v>
       </c>
@@ -12763,8 +12896,11 @@
       <c r="CB44">
         <v>1838</v>
       </c>
+      <c r="CC44">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="45" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>196</v>
       </c>
@@ -13019,8 +13155,11 @@
       <c r="CB45">
         <v>1230</v>
       </c>
+      <c r="CC45">
+        <v>1368</v>
+      </c>
     </row>
-    <row r="46" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>194</v>
       </c>
@@ -13275,8 +13414,11 @@
       <c r="CB46">
         <v>1004</v>
       </c>
+      <c r="CC46">
+        <v>2160</v>
+      </c>
     </row>
-    <row r="47" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>218</v>
       </c>
@@ -13529,8 +13671,11 @@
       <c r="CB47" s="7" t="s">
         <v>179</v>
       </c>
+      <c r="CC47" s="7" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="48" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>188</v>
       </c>
@@ -13785,8 +13930,11 @@
       <c r="CB48">
         <v>604</v>
       </c>
+      <c r="CC48">
+        <v>1620</v>
+      </c>
     </row>
-    <row r="49" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>185</v>
       </c>
@@ -14041,8 +14189,11 @@
       <c r="CB49" s="7" t="s">
         <v>179</v>
       </c>
+      <c r="CC49">
+        <v>1530</v>
+      </c>
     </row>
-    <row r="50" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>191</v>
       </c>
@@ -14297,8 +14448,11 @@
       <c r="CB50">
         <v>825</v>
       </c>
+      <c r="CC50">
+        <v>900</v>
+      </c>
     </row>
-    <row r="51" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>192</v>
       </c>
@@ -14553,8 +14707,11 @@
       <c r="CB51">
         <v>1076</v>
       </c>
+      <c r="CC51" s="7" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="52" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>193</v>
       </c>
@@ -14808,8 +14965,11 @@
       <c r="CB52">
         <v>1681</v>
       </c>
+      <c r="CC52">
+        <v>275.39999999999998</v>
+      </c>
     </row>
-    <row r="53" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>195</v>
       </c>
@@ -15064,8 +15224,11 @@
       <c r="CB53">
         <v>1196</v>
       </c>
+      <c r="CC53">
+        <v>612</v>
+      </c>
     </row>
-    <row r="54" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>189</v>
       </c>
@@ -15320,8 +15483,11 @@
       <c r="CB54">
         <v>1103</v>
       </c>
+      <c r="CC54">
+        <v>2923.2</v>
+      </c>
     </row>
-    <row r="55" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>199</v>
       </c>
@@ -15576,8 +15742,11 @@
       <c r="CB55">
         <v>1828</v>
       </c>
+      <c r="CC55">
+        <v>4824</v>
+      </c>
     </row>
-    <row r="56" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>197</v>
       </c>
@@ -15832,8 +16001,11 @@
       <c r="CB56">
         <v>732</v>
       </c>
+      <c r="CC56">
+        <v>2358</v>
+      </c>
     </row>
-    <row r="57" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>201</v>
       </c>
@@ -16088,8 +16260,11 @@
       <c r="CB57" s="7" t="s">
         <v>179</v>
       </c>
+      <c r="CC57">
+        <v>6012</v>
+      </c>
     </row>
-    <row r="58" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>204</v>
       </c>
@@ -16344,8 +16519,11 @@
       <c r="CB58">
         <v>1589</v>
       </c>
+      <c r="CC58">
+        <v>1260</v>
+      </c>
     </row>
-    <row r="59" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>202</v>
       </c>
@@ -16600,8 +16778,11 @@
       <c r="CB59">
         <v>2215</v>
       </c>
+      <c r="CC59">
+        <v>720</v>
+      </c>
     </row>
-    <row r="60" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>209</v>
       </c>
@@ -16855,8 +17036,8 @@
       <c r="CB60">
         <v>2672</v>
       </c>
-      <c r="FT60" t="s">
-        <v>179</v>
+      <c r="CC60">
+        <v>900</v>
       </c>
       <c r="FU60" t="s">
         <v>179</v>
@@ -16870,8 +17051,11 @@
       <c r="FX60" t="s">
         <v>179</v>
       </c>
+      <c r="FY60" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="61" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>207</v>
       </c>
@@ -17127,8 +17311,11 @@
       <c r="CB61">
         <v>1322</v>
       </c>
+      <c r="CC61">
+        <v>2016</v>
+      </c>
     </row>
-    <row r="62" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>205</v>
       </c>
@@ -17383,8 +17570,11 @@
       <c r="CB62">
         <v>1370</v>
       </c>
+      <c r="CC62">
+        <v>1080</v>
+      </c>
     </row>
-    <row r="63" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>212</v>
       </c>
@@ -17639,8 +17829,11 @@
       <c r="CB63">
         <v>1766</v>
       </c>
+      <c r="CC63">
+        <v>1080</v>
+      </c>
     </row>
-    <row r="64" spans="1:180" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:181" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>214</v>
       </c>
@@ -17886,8 +18079,11 @@
       <c r="CB64">
         <v>1313</v>
       </c>
+      <c r="CC64">
+        <v>1620</v>
+      </c>
     </row>
-    <row r="65" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>211</v>
       </c>
@@ -18142,8 +18338,11 @@
       <c r="CB65">
         <v>838</v>
       </c>
+      <c r="CC65">
+        <v>360</v>
+      </c>
     </row>
-    <row r="66" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>200</v>
       </c>
@@ -18398,8 +18597,11 @@
       <c r="CB66">
         <v>693</v>
       </c>
+      <c r="CC66">
+        <v>2844</v>
+      </c>
     </row>
-    <row r="67" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>210</v>
       </c>
@@ -18653,8 +18855,11 @@
       <c r="CB67">
         <v>1997</v>
       </c>
+      <c r="CC67">
+        <v>5994.4</v>
+      </c>
     </row>
-    <row r="68" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>213</v>
       </c>
@@ -18909,8 +19114,11 @@
       <c r="CB68">
         <v>1501</v>
       </c>
+      <c r="CC68">
+        <v>720</v>
+      </c>
     </row>
-    <row r="69" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>215</v>
       </c>
@@ -19164,8 +19372,11 @@
       <c r="CB69">
         <v>969</v>
       </c>
+      <c r="CC69">
+        <v>2736</v>
+      </c>
     </row>
-    <row r="70" spans="1:80" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>216</v>
       </c>
@@ -19421,26 +19632,29 @@
       <c r="CB70">
         <v>968</v>
       </c>
+      <c r="CC70">
+        <v>3672</v>
+      </c>
     </row>
-    <row r="71" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:81" x14ac:dyDescent="0.2">
       <c r="U71" s="7"/>
     </row>
-    <row r="72" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:81" x14ac:dyDescent="0.2">
       <c r="U72" s="7"/>
     </row>
-    <row r="73" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:81" x14ac:dyDescent="0.2">
       <c r="U73" s="7"/>
     </row>
-    <row r="74" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:81" x14ac:dyDescent="0.2">
       <c r="U74" s="7"/>
     </row>
-    <row r="75" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:81" x14ac:dyDescent="0.2">
       <c r="U75" s="7"/>
     </row>
-    <row r="76" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:81" x14ac:dyDescent="0.2">
       <c r="U76" s="7"/>
     </row>
-    <row r="77" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:81" x14ac:dyDescent="0.2">
       <c r="U77" s="7"/>
     </row>
   </sheetData>

--- a/Gjeldene_analyser/Resultatskjema.xlsx
+++ b/Gjeldene_analyser/Resultatskjema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Gjeldene_analyser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F950FBAE-5C26-A84B-AE83-D0B4BD38E3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5145931-8E6C-814B-BAD6-4F2992C1753F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="222">
   <si>
     <t>id</t>
   </si>
@@ -1125,7 +1125,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CC51" sqref="CC51"/>
+      <selection pane="topRight" activeCell="CE7" sqref="CE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4877,8 +4877,8 @@
       <c r="CB13">
         <v>1117</v>
       </c>
-      <c r="CC13" s="7" t="s">
-        <v>179</v>
+      <c r="CC13" s="7">
+        <v>3060</v>
       </c>
     </row>
     <row r="14" spans="1:176" ht="16" x14ac:dyDescent="0.2">
